--- a/技术.xlsx
+++ b/技术.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="48">
   <si>
     <t>2019.4.19</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -96,11 +96,110 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>预报</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>一小时支持</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.4.27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>web</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘杨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缴费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>半小时支持</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贾舒月</t>
+  </si>
+  <si>
+    <t>缴费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.5.11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张加龙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nsd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘杨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缴费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>训练营</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.5.11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苏恒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nsd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>程鹏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>训练营</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.5.11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武钟敬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>程鹏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缴费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缴费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.5.11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>训练营</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1天</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -450,10 +549,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -529,10 +628,101 @@
         <v>20</v>
       </c>
       <c r="E4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" t="s">
         <v>21</v>
       </c>
-      <c r="F4" t="s">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
         <v>22</v>
+      </c>
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
